--- a/output/DIVIDEND/rebalance/rebalance_20240628.xlsx
+++ b/output/DIVIDEND/rebalance/rebalance_20240628.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>42.92%</t>
+          <t>42.95%</t>
         </is>
       </c>
     </row>
@@ -5850,13 +5850,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02193214514564096</v>
+        <v>0.021907237620645</v>
       </c>
       <c r="C2" t="n">
         <v>0.02154371830941764</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.000388426836223324</v>
+        <v>-0.0003635193112273595</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -5871,13 +5871,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02118842302861821</v>
+        <v>0.02116370485490683</v>
       </c>
       <c r="C3" t="n">
         <v>0.02154371830941764</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0003552952807994308</v>
+        <v>0.000380013454510806</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -5892,13 +5892,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01651185956472287</v>
+        <v>0.01649557466524615</v>
       </c>
       <c r="C4" t="n">
         <v>0.02154371830941764</v>
       </c>
       <c r="D4" t="n">
-        <v>0.005031858744694771</v>
+        <v>0.005048143644171488</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -5913,13 +5913,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02046122967105922</v>
+        <v>0.02044433255357699</v>
       </c>
       <c r="C5" t="n">
         <v>0.02154371830941764</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001082488638358414</v>
+        <v>0.001099385755840652</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -5934,13 +5934,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03384179767082138</v>
+        <v>0.03380101080352056</v>
       </c>
       <c r="C6" t="n">
         <v>0.02154371830941764</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.01229807936140375</v>
+        <v>-0.01225729249410292</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -5955,13 +5955,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01607047080363372</v>
+        <v>0.01605374046425641</v>
       </c>
       <c r="C7" t="n">
         <v>0.02139481665504189</v>
       </c>
       <c r="D7" t="n">
-        <v>0.005324345851408171</v>
+        <v>0.005341076190785481</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -5976,13 +5976,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02386659106532117</v>
+        <v>0.02384111252566893</v>
       </c>
       <c r="C8" t="n">
         <v>0.0213634689383312</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.002503122126989967</v>
+        <v>-0.002477643587337722</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -5997,13 +5997,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02090189087081319</v>
+        <v>0.02088028761842141</v>
       </c>
       <c r="C9" t="n">
         <v>0.02112836106300107</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0002264701921878866</v>
+        <v>0.0002480734445796662</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6018,13 +6018,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01697204162262031</v>
+        <v>0.01695335088338607</v>
       </c>
       <c r="C10" t="n">
         <v>0.02111268720464573</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004140645582025419</v>
+        <v>0.004159336321259661</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6039,13 +6039,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01814823782061446</v>
+        <v>0.01812663809308441</v>
       </c>
       <c r="C11" t="n">
         <v>0.02108133948793505</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002933101667320588</v>
+        <v>0.002954701394850639</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6060,13 +6060,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01380530408571129</v>
+        <v>0.01379220611865406</v>
       </c>
       <c r="C12" t="n">
         <v>0.02106566562957971</v>
       </c>
       <c r="D12" t="n">
-        <v>0.007260361543868419</v>
+        <v>0.007273459510925647</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6081,13 +6081,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01932548592696374</v>
+        <v>0.01930335210473009</v>
       </c>
       <c r="C13" t="n">
         <v>0.02089325318767095</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001567767260707204</v>
+        <v>0.001589901082940853</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6102,13 +6102,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02002545005215647</v>
+        <v>0.02000444035870262</v>
       </c>
       <c r="C14" t="n">
         <v>0.0208775793293156</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0008521292771591291</v>
+        <v>0.0008731389706129813</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01840946658752364</v>
+        <v>0.01838718363278722</v>
       </c>
       <c r="C15" t="n">
         <v>0.02076786232082821</v>
       </c>
       <c r="D15" t="n">
-        <v>0.002358395733304566</v>
+        <v>0.002380678688040993</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6144,13 +6144,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03843970595261485</v>
+        <v>0.03839390612987915</v>
       </c>
       <c r="C16" t="n">
         <v>0.02075218846247287</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.01768751749014199</v>
+        <v>-0.01764171766740628</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6207,13 +6207,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02332825297305865</v>
+        <v>0.02330038880933142</v>
       </c>
       <c r="C19" t="n">
         <v>0.02051708058714274</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.002811172385915914</v>
+        <v>-0.002783308222188686</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6312,13 +6312,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02415363942751842</v>
+        <v>0.02412843517632109</v>
       </c>
       <c r="C24" t="n">
         <v>0.02023495113674658</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.003918688290771841</v>
+        <v>-0.003893484039574513</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6396,13 +6396,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01958256795335826</v>
+        <v>0.01955980302555752</v>
       </c>
       <c r="C28" t="n">
         <v>0.01989012625292905</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0003075582995707982</v>
+        <v>0.0003303232273715317</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6417,13 +6417,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.03145138178991973</v>
+        <v>0.0314151086760171</v>
       </c>
       <c r="C29" t="n">
         <v>0.01985877853621837</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.01159260325370136</v>
+        <v>-0.01155633013979873</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6438,13 +6438,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02190589319392193</v>
+        <v>0.02188170570551943</v>
       </c>
       <c r="C30" t="n">
         <v>0.01978040924444166</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.002125483949480273</v>
+        <v>-0.002101296461077769</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6501,13 +6501,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02262494197689615</v>
+        <v>0.02259880878990614</v>
       </c>
       <c r="C33" t="n">
         <v>0.01967069223595427</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.002954249740941887</v>
+        <v>-0.002928116553951872</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6585,13 +6585,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01946947750454538</v>
+        <v>0.01944629133769962</v>
       </c>
       <c r="C37" t="n">
         <v>0.01940423664391345</v>
       </c>
       <c r="D37" t="n">
-        <v>-6.524086063192797e-05</v>
+        <v>-4.205469378617405e-05</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -6606,13 +6606,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.02057234319597468</v>
+        <v>0.02054942847021577</v>
       </c>
       <c r="C38" t="n">
         <v>0.01935721506884742</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.001215128127127256</v>
+        <v>-0.001192213401368349</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -6690,13 +6690,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01987552315821644</v>
+        <v>0.01985275087994285</v>
       </c>
       <c r="C42" t="n">
         <v>0.01869891301792306</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.001176610140293379</v>
+        <v>-0.001153837862019797</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -6732,13 +6732,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.02293141508284663</v>
+        <v>0.02290817941400178</v>
       </c>
       <c r="C44" t="n">
         <v>0.01865189144285703</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.0042795236399896</v>
+        <v>-0.004256287971144745</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.0244811730361487</v>
+        <v>0.02445306890177883</v>
       </c>
       <c r="C45" t="n">
         <v>0.01857352215108032</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.005907650885068377</v>
+        <v>-0.00587954675069851</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -6774,13 +6774,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.02063018181040237</v>
+        <v>0.02060520849625799</v>
       </c>
       <c r="C46" t="n">
         <v>0.0185265005760143</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.002103681234388071</v>
+        <v>-0.002078707920243693</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -6837,13 +6837,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.02118255181757015</v>
+        <v>0.02115748675019405</v>
       </c>
       <c r="C49" t="n">
         <v>0.0184167835675269</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.002765768250043252</v>
+        <v>-0.002740703182667146</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -6858,13 +6858,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01630978362667698</v>
+        <v>0.0162910767289941</v>
       </c>
       <c r="C50" t="n">
         <v>0.01819734955055212</v>
       </c>
       <c r="D50" t="n">
-        <v>0.00188756592387514</v>
+        <v>0.00190627282155802</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -6879,13 +6879,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01617109044146573</v>
+        <v>0.01615073288743977</v>
       </c>
       <c r="C51" t="n">
         <v>0.01808763254206472</v>
       </c>
       <c r="D51" t="n">
-        <v>0.001916542100598984</v>
+        <v>0.001936899654624947</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -6900,13 +6900,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01517007096401152</v>
+        <v>0.01570976649195453</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01517007096401152</v>
+        <v>-0.01570976649195453</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -6921,13 +6921,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.0167807210376121</v>
+        <v>0.01676053786380685</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.0167807210376121</v>
+        <v>-0.01676053786380685</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -6942,13 +6942,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.02127063365322743</v>
+        <v>0.02124292448094281</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.02127063365322743</v>
+        <v>-0.02124292448094281</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -6963,13 +6963,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02013795576026748</v>
+        <v>0.02011436363906698</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.02013795576026748</v>
+        <v>-0.02011436363906698</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -6984,13 +6984,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.02358492127822645</v>
+        <v>0.02355565764503134</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.02358492127822645</v>
+        <v>-0.02355565764503134</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7005,13 +7005,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01554280979906175</v>
+        <v>0.01552620893590152</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01554280979906175</v>
+        <v>-0.01552620893590152</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7026,13 +7026,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01863013103298312</v>
+        <v>0.01860732982908614</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01863013103298312</v>
+        <v>-0.01860732982908614</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7047,13 +7047,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01875567491664798</v>
+        <v>0.01873288497521376</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01875567491664798</v>
+        <v>-0.01873288497521376</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7068,13 +7068,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01379656831910469</v>
+        <v>0.01378185122336289</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01379656831910469</v>
+        <v>-0.01378185122336289</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7089,13 +7089,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01683638319469634</v>
+        <v>0.01737598909673571</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01683638319469634</v>
+        <v>-0.01737598909673571</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7110,13 +7110,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01875808187390266</v>
+        <v>0.01874011551110383</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01875808187390266</v>
+        <v>-0.01874011551110383</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7131,13 +7131,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01581574765106981</v>
+        <v>0.01579873718958028</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01581574765106981</v>
+        <v>-0.01579873718958028</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7152,13 +7152,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01973517568364346</v>
+        <v>0.01973172629155678</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.01973517568364346</v>
+        <v>-0.01973172629155678</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7173,13 +7173,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01467598593262754</v>
+        <v>0.01466020125258882</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.01467598593262754</v>
+        <v>-0.01466020125258882</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7194,13 +7194,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01620042952086451</v>
+        <v>0.01617928629443571</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.01620042952086451</v>
+        <v>-0.01617928629443571</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7215,13 +7215,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01653060778282397</v>
+        <v>0.01650992512599002</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.01653060778282397</v>
+        <v>-0.01650992512599002</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7236,13 +7236,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01839094267744262</v>
+        <v>0.01837130953424177</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.01839094267744262</v>
+        <v>-0.01837130953424177</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7257,13 +7257,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01672299065568041</v>
+        <v>0.01670283624322397</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01672299065568041</v>
+        <v>-0.01670283624322397</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7278,13 +7278,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01561920005618546</v>
+        <v>0.01560213674655917</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.01561920005618546</v>
+        <v>-0.01560213674655917</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7299,13 +7299,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.02247465135256497</v>
+        <v>0.02244965915297379</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.02247465135256497</v>
+        <v>-0.02244965915297379</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>

--- a/output/DIVIDEND/rebalance/rebalance_20240628.xlsx
+++ b/output/DIVIDEND/rebalance/rebalance_20240628.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>42.95%</t>
+          <t>43.36%</t>
         </is>
       </c>
     </row>
@@ -5850,17 +5850,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.021907237620645</v>
+        <v>0.02108166296349157</v>
       </c>
       <c r="C2" t="n">
         <v>0.02154371830941764</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0003635193112273595</v>
+        <v>0.0004620553459260719</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -5871,13 +5871,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02116370485490683</v>
+        <v>0.02146660493750218</v>
       </c>
       <c r="C3" t="n">
         <v>0.02154371830941764</v>
       </c>
       <c r="D3" t="n">
-        <v>0.000380013454510806</v>
+        <v>7.711337191545695e-05</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -5892,13 +5892,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01649557466524615</v>
+        <v>0.0159682502030692</v>
       </c>
       <c r="C4" t="n">
         <v>0.02154371830941764</v>
       </c>
       <c r="D4" t="n">
-        <v>0.005048143644171488</v>
+        <v>0.005575468106348437</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -5913,13 +5913,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02044433255357699</v>
+        <v>0.01962721193333387</v>
       </c>
       <c r="C5" t="n">
         <v>0.02154371830941764</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001099385755840652</v>
+        <v>0.001916506376083763</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -5934,13 +5934,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03380101080352056</v>
+        <v>0.03428610519967425</v>
       </c>
       <c r="C6" t="n">
         <v>0.02154371830941764</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.01225729249410292</v>
+        <v>-0.01274238689025661</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -5955,13 +5955,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01605374046425641</v>
+        <v>0.01541296043679511</v>
       </c>
       <c r="C7" t="n">
         <v>0.02139481665504189</v>
       </c>
       <c r="D7" t="n">
-        <v>0.005341076190785481</v>
+        <v>0.005981856218246784</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -5976,13 +5976,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02384111252566893</v>
+        <v>0.02417993452897287</v>
       </c>
       <c r="C8" t="n">
         <v>0.0213634689383312</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.002477643587337722</v>
+        <v>-0.002816465590641668</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -5997,13 +5997,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02088028761842141</v>
+        <v>0.02019678992184706</v>
       </c>
       <c r="C9" t="n">
         <v>0.02112836106300107</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0002480734445796662</v>
+        <v>0.0009315711411540147</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6018,13 +6018,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01695335088338607</v>
+        <v>0.01719486683853478</v>
       </c>
       <c r="C10" t="n">
         <v>0.02111268720464573</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004159336321259661</v>
+        <v>0.00391782036611095</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6039,13 +6039,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01812663809308441</v>
+        <v>0.01765432219180191</v>
       </c>
       <c r="C11" t="n">
         <v>0.02108133948793505</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002954701394850639</v>
+        <v>0.00342701729613314</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6060,13 +6060,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01379220611865406</v>
+        <v>0.01336315267548376</v>
       </c>
       <c r="C12" t="n">
         <v>0.02106566562957971</v>
       </c>
       <c r="D12" t="n">
-        <v>0.007273459510925647</v>
+        <v>0.007702512954095948</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6081,13 +6081,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01930335210473009</v>
+        <v>0.01891590720082406</v>
       </c>
       <c r="C13" t="n">
         <v>0.02089325318767095</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001589901082940853</v>
+        <v>0.001977345986846887</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6102,13 +6102,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02000444035870262</v>
+        <v>0.01943574740428893</v>
       </c>
       <c r="C14" t="n">
         <v>0.0208775793293156</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0008731389706129813</v>
+        <v>0.001441831925026671</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01838718363278722</v>
+        <v>0.01796577650515629</v>
       </c>
       <c r="C15" t="n">
         <v>0.02076786232082821</v>
       </c>
       <c r="D15" t="n">
-        <v>0.002380678688040993</v>
+        <v>0.002802085815671915</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6144,13 +6144,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03839390612987915</v>
+        <v>0.03825223978344065</v>
       </c>
       <c r="C16" t="n">
         <v>0.02075218846247287</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.01764171766740628</v>
+        <v>-0.01750005132096778</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6207,13 +6207,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02330038880933142</v>
+        <v>0.02363452861868877</v>
       </c>
       <c r="C19" t="n">
         <v>0.02051708058714274</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.002783308222188686</v>
+        <v>-0.003117448031546032</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6312,13 +6312,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02412843517632109</v>
+        <v>0.02375271305289868</v>
       </c>
       <c r="C24" t="n">
         <v>0.02023495113674658</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.003893484039574513</v>
+        <v>-0.0035177619161521</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6396,13 +6396,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01955980302555752</v>
+        <v>0.01983966665894658</v>
       </c>
       <c r="C28" t="n">
         <v>0.01989012625292905</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0003303232273715317</v>
+        <v>5.045959398247354e-05</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6417,13 +6417,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0314151086760171</v>
+        <v>0.03186430564987577</v>
       </c>
       <c r="C29" t="n">
         <v>0.01985877853621837</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.01155633013979873</v>
+        <v>-0.0120055271136574</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6438,13 +6438,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02188170570551943</v>
+        <v>0.02219349473823048</v>
       </c>
       <c r="C30" t="n">
         <v>0.01978040924444166</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.002101296461077769</v>
+        <v>-0.002413085493788818</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6501,13 +6501,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02259880878990614</v>
+        <v>0.02292198388223387</v>
       </c>
       <c r="C33" t="n">
         <v>0.01967069223595427</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.002928116553951872</v>
+        <v>-0.003251291646279606</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6585,13 +6585,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01944629133769962</v>
+        <v>0.01972509145041915</v>
       </c>
       <c r="C37" t="n">
         <v>0.01940423664391345</v>
       </c>
       <c r="D37" t="n">
-        <v>-4.205469378617405e-05</v>
+        <v>-0.0003208548065057049</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -6606,13 +6606,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.02054942847021577</v>
+        <v>0.02084243661881903</v>
       </c>
       <c r="C38" t="n">
         <v>0.01935721506884742</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.001192213401368349</v>
+        <v>-0.001485221549971601</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -6690,13 +6690,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01985275087994285</v>
+        <v>0.02013646806028642</v>
       </c>
       <c r="C42" t="n">
         <v>0.01869891301792306</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.001153837862019797</v>
+        <v>-0.001437555042363363</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -6732,13 +6732,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.02290817941400178</v>
+        <v>0.02323248066061715</v>
       </c>
       <c r="C44" t="n">
         <v>0.01865189144285703</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.004256287971144745</v>
+        <v>-0.004580589217760115</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.02445306890177883</v>
+        <v>0.0248025853204757</v>
       </c>
       <c r="C45" t="n">
         <v>0.01857352215108032</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.00587954675069851</v>
+        <v>-0.00622906316939538</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -6774,13 +6774,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.02060520849625799</v>
+        <v>0.02090103459396676</v>
       </c>
       <c r="C46" t="n">
         <v>0.0185265005760143</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.002078707920243693</v>
+        <v>-0.002374534017952463</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -6837,13 +6837,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.02115748675019405</v>
+        <v>0.02146065664357283</v>
       </c>
       <c r="C49" t="n">
         <v>0.0184167835675269</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.002740703182667146</v>
+        <v>-0.003043873076045922</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -6858,13 +6858,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.0162910767289941</v>
+        <v>0.01652391408540085</v>
       </c>
       <c r="C50" t="n">
         <v>0.01819734955055212</v>
       </c>
       <c r="D50" t="n">
-        <v>0.00190627282155802</v>
+        <v>0.001673435465151266</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -6879,13 +6879,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01615073288743977</v>
+        <v>0.01638340000323286</v>
       </c>
       <c r="C51" t="n">
         <v>0.01808763254206472</v>
       </c>
       <c r="D51" t="n">
-        <v>0.001936899654624947</v>
+        <v>0.001704232538831861</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -6900,13 +6900,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01570976649195453</v>
+        <v>0.01480211775892236</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01570976649195453</v>
+        <v>-0.01480211775892236</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -6921,13 +6921,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01676053786380685</v>
+        <v>0.01700103441366595</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01676053786380685</v>
+        <v>-0.01700103441366595</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -6942,13 +6942,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.02124292448094281</v>
+        <v>0.02154989490192134</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.02124292448094281</v>
+        <v>-0.02154989490192134</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -6963,13 +6963,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02011436363906698</v>
+        <v>0.02040234612885914</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.02011436363906698</v>
+        <v>-0.02040234612885914</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -6984,13 +6984,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.02355565764503134</v>
+        <v>0.02389456671116851</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.02355565764503134</v>
+        <v>-0.02389456671116851</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7005,13 +7005,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01552620893590152</v>
+        <v>0.01574687069087442</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01552620893590152</v>
+        <v>-0.01574687069087442</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7026,13 +7026,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01860732982908614</v>
+        <v>0.01887472523456737</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01860732982908614</v>
+        <v>-0.01887472523456737</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7047,13 +7047,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01873288497521376</v>
+        <v>0.01900191737856567</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01873288497521376</v>
+        <v>-0.01900191737856567</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7068,13 +7068,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01378185122336289</v>
+        <v>0.01340911835650717</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01378185122336289</v>
+        <v>-0.01340911835650717</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7089,13 +7089,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01737598909673571</v>
+        <v>0.0164919877759638</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01737598909673571</v>
+        <v>-0.0164919877759638</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7110,13 +7110,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01874011551110383</v>
+        <v>0.01837321496459402</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01874011551110383</v>
+        <v>-0.01837321496459402</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7131,13 +7131,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01579873718958028</v>
+        <v>0.01602339193238606</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01579873718958028</v>
+        <v>-0.01602339193238606</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7152,13 +7152,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01973172629155678</v>
+        <v>0.0190141663044822</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.01973172629155678</v>
+        <v>-0.0190141663044822</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7173,13 +7173,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01466020125258882</v>
+        <v>0.0148686663305967</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.01466020125258882</v>
+        <v>-0.0148686663305967</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7194,13 +7194,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01617928629443571</v>
+        <v>0.01641312427416292</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.01617928629443571</v>
+        <v>-0.01641312427416292</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7215,13 +7215,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01650992512599002</v>
+        <v>0.01674763743254484</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.01650992512599002</v>
+        <v>-0.01674763743254484</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7236,13 +7236,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.01837130953424177</v>
+        <v>0.01863239658523354</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.01837130953424177</v>
+        <v>-0.01863239658523354</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7257,13 +7257,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01670283624322397</v>
+        <v>0.01694254609199404</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01670283624322397</v>
+        <v>-0.01694254609199404</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7278,13 +7278,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01560213674655917</v>
+        <v>0.01582426387244973</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.01560213674655917</v>
+        <v>-0.01582426387244973</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7299,13 +7299,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.02244965915297379</v>
+        <v>0.02276972009865874</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.02244965915297379</v>
+        <v>-0.02276972009865874</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
